--- a/ssp_modeling/transformations/templates/calibrated/uganda/model_input_variables_uganda_ip_calibrated.xlsx
+++ b/ssp_modeling/transformations/templates/calibrated/uganda/model_input_variables_uganda_ip_calibrated.xlsx
@@ -9528,112 +9528,112 @@
         <v>1</v>
       </c>
       <c r="J70">
-        <v>0.0001735714285714</v>
+        <v>0.000173571</v>
       </c>
       <c r="K70">
-        <v>0.0001735714285714</v>
+        <v>0.000173571</v>
       </c>
       <c r="L70">
-        <v>0.0001735714285714</v>
+        <v>0.000173571</v>
       </c>
       <c r="M70">
-        <v>0.0001735714285714</v>
+        <v>0.000173571</v>
       </c>
       <c r="N70">
-        <v>0.0001735714285714</v>
+        <v>0.000173571</v>
       </c>
       <c r="O70">
-        <v>0.0001735714285714</v>
+        <v>0.000173571</v>
       </c>
       <c r="P70">
-        <v>0.0001735714285714</v>
+        <v>0.000173571</v>
       </c>
       <c r="Q70">
-        <v>0.0001735714285714</v>
+        <v>0.000173571</v>
       </c>
       <c r="R70">
-        <v>0.0001735714285714</v>
+        <v>0.000173571</v>
       </c>
       <c r="S70">
-        <v>0.0001735714285714</v>
+        <v>0.000173571</v>
       </c>
       <c r="T70">
-        <v>0.0001735714285714</v>
+        <v>0.000173571</v>
       </c>
       <c r="U70">
-        <v>0.0001735714285714</v>
+        <v>0.000173571</v>
       </c>
       <c r="V70">
-        <v>0.0001735714285714</v>
+        <v>0.000173571</v>
       </c>
       <c r="W70">
-        <v>0.0001735714285714</v>
+        <v>0.000173571</v>
       </c>
       <c r="X70">
-        <v>0.0001735714285714</v>
+        <v>0.000173571</v>
       </c>
       <c r="Y70">
-        <v>0.0001735714285714</v>
+        <v>0.000173571</v>
       </c>
       <c r="Z70">
-        <v>0.0001735714285714</v>
+        <v>0.000173571</v>
       </c>
       <c r="AA70">
-        <v>0.0001735714285714</v>
+        <v>0.000173571</v>
       </c>
       <c r="AB70">
-        <v>0.0001735714285714</v>
+        <v>0.000173571</v>
       </c>
       <c r="AC70">
-        <v>0.0001735714285714</v>
+        <v>0.000173571</v>
       </c>
       <c r="AD70">
-        <v>0.0001735714285714</v>
+        <v>0.000173571</v>
       </c>
       <c r="AE70">
-        <v>0.0001735714285714</v>
+        <v>0.000173571</v>
       </c>
       <c r="AF70">
-        <v>0.0001735714285714</v>
+        <v>0.000173571</v>
       </c>
       <c r="AG70">
-        <v>0.0001735714285714</v>
+        <v>0.000173571</v>
       </c>
       <c r="AH70">
-        <v>0.0001735714285714</v>
+        <v>0.000173571</v>
       </c>
       <c r="AI70">
-        <v>0.0001735714285714</v>
+        <v>0.000173571</v>
       </c>
       <c r="AJ70">
-        <v>0.0001735714285714</v>
+        <v>0.000173571</v>
       </c>
       <c r="AK70">
-        <v>0.0001735714285714</v>
+        <v>0.000173571</v>
       </c>
       <c r="AL70">
-        <v>0.0001735714285714</v>
+        <v>0.000173571</v>
       </c>
       <c r="AM70">
-        <v>0.0001735714285714</v>
+        <v>0.000173571</v>
       </c>
       <c r="AN70">
-        <v>0.0001735714285714</v>
+        <v>0.000173571</v>
       </c>
       <c r="AO70">
-        <v>0.0001735714285714</v>
+        <v>0.000173571</v>
       </c>
       <c r="AP70">
-        <v>0.0001735714285714</v>
+        <v>0.000173571</v>
       </c>
       <c r="AQ70">
-        <v>0.0001735714285714</v>
+        <v>0.000173571</v>
       </c>
       <c r="AR70">
-        <v>0.0001735714285714</v>
+        <v>0.000173571</v>
       </c>
       <c r="AS70">
-        <v>0.0001735714285714</v>
+        <v>0.000173571</v>
       </c>
     </row>
     <row r="71" spans="1:45">
@@ -11123,112 +11123,112 @@
         <v>1</v>
       </c>
       <c r="J83">
-        <v>0.848907407407407</v>
+        <v>0.848907407</v>
       </c>
       <c r="K83">
-        <v>0.848907407407407</v>
+        <v>0.848907407</v>
       </c>
       <c r="L83">
-        <v>0.848907407407407</v>
+        <v>0.848907407</v>
       </c>
       <c r="M83">
-        <v>0.848907407407407</v>
+        <v>0.848907407</v>
       </c>
       <c r="N83">
-        <v>0.848907407407407</v>
+        <v>0.848907407</v>
       </c>
       <c r="O83">
-        <v>0.848907407407407</v>
+        <v>0.848907407</v>
       </c>
       <c r="P83">
-        <v>0.848907407407407</v>
+        <v>0.848907407</v>
       </c>
       <c r="Q83">
-        <v>0.848907407407407</v>
+        <v>0.848907407</v>
       </c>
       <c r="R83">
-        <v>0.848907407407407</v>
+        <v>0.848907407</v>
       </c>
       <c r="S83">
-        <v>0.848907407407407</v>
+        <v>0.848907407</v>
       </c>
       <c r="T83">
-        <v>0.848907407407407</v>
+        <v>0.848907407</v>
       </c>
       <c r="U83">
-        <v>0.848907407407407</v>
+        <v>0.848907407</v>
       </c>
       <c r="V83">
-        <v>0.848907407407407</v>
+        <v>0.848907407</v>
       </c>
       <c r="W83">
-        <v>0.848907407407407</v>
+        <v>0.848907407</v>
       </c>
       <c r="X83">
-        <v>0.848907407407407</v>
+        <v>0.848907407</v>
       </c>
       <c r="Y83">
-        <v>0.848907407407407</v>
+        <v>0.848907407</v>
       </c>
       <c r="Z83">
-        <v>0.848907407407407</v>
+        <v>0.848907407</v>
       </c>
       <c r="AA83">
-        <v>0.848907407407407</v>
+        <v>0.848907407</v>
       </c>
       <c r="AB83">
-        <v>0.848907407407407</v>
+        <v>0.848907407</v>
       </c>
       <c r="AC83">
-        <v>0.848907407407407</v>
+        <v>0.848907407</v>
       </c>
       <c r="AD83">
-        <v>0.848907407407407</v>
+        <v>0.848907407</v>
       </c>
       <c r="AE83">
-        <v>0.848907407407407</v>
+        <v>0.848907407</v>
       </c>
       <c r="AF83">
-        <v>0.848907407407407</v>
+        <v>0.848907407</v>
       </c>
       <c r="AG83">
-        <v>0.848907407407407</v>
+        <v>0.848907407</v>
       </c>
       <c r="AH83">
-        <v>0.848907407407407</v>
+        <v>0.848907407</v>
       </c>
       <c r="AI83">
-        <v>0.848907407407407</v>
+        <v>0.848907407</v>
       </c>
       <c r="AJ83">
-        <v>0.848907407407407</v>
+        <v>0.848907407</v>
       </c>
       <c r="AK83">
-        <v>0.848907407407407</v>
+        <v>0.848907407</v>
       </c>
       <c r="AL83">
-        <v>0.848907407407407</v>
+        <v>0.848907407</v>
       </c>
       <c r="AM83">
-        <v>0.848907407407407</v>
+        <v>0.848907407</v>
       </c>
       <c r="AN83">
-        <v>0.848907407407407</v>
+        <v>0.848907407</v>
       </c>
       <c r="AO83">
-        <v>0.848907407407407</v>
+        <v>0.848907407</v>
       </c>
       <c r="AP83">
-        <v>0.848907407407407</v>
+        <v>0.848907407</v>
       </c>
       <c r="AQ83">
-        <v>0.848907407407407</v>
+        <v>0.848907407</v>
       </c>
       <c r="AR83">
-        <v>0.848907407407407</v>
+        <v>0.848907407</v>
       </c>
       <c r="AS83">
-        <v>0.848907407407407</v>
+        <v>0.848907407</v>
       </c>
     </row>
     <row r="84" spans="1:45">
@@ -11489,112 +11489,112 @@
         <v>1</v>
       </c>
       <c r="J86">
-        <v>1.86673809523809</v>
+        <v>1.866738095</v>
       </c>
       <c r="K86">
-        <v>1.86673809523809</v>
+        <v>1.866738095</v>
       </c>
       <c r="L86">
-        <v>1.86673809523809</v>
+        <v>1.866738095</v>
       </c>
       <c r="M86">
-        <v>1.86673809523809</v>
+        <v>1.866738095</v>
       </c>
       <c r="N86">
-        <v>1.86673809523809</v>
+        <v>1.866738095</v>
       </c>
       <c r="O86">
-        <v>1.86673809523809</v>
+        <v>1.866738095</v>
       </c>
       <c r="P86">
-        <v>1.86673809523809</v>
+        <v>1.866738095</v>
       </c>
       <c r="Q86">
-        <v>1.86673809523809</v>
+        <v>1.866738095</v>
       </c>
       <c r="R86">
-        <v>1.86673809523809</v>
+        <v>1.866738095</v>
       </c>
       <c r="S86">
-        <v>1.86673809523809</v>
+        <v>1.866738095</v>
       </c>
       <c r="T86">
-        <v>1.86673809523809</v>
+        <v>1.866738095</v>
       </c>
       <c r="U86">
-        <v>1.86673809523809</v>
+        <v>1.866738095</v>
       </c>
       <c r="V86">
-        <v>1.86673809523809</v>
+        <v>1.866738095</v>
       </c>
       <c r="W86">
-        <v>1.86673809523809</v>
+        <v>1.866738095</v>
       </c>
       <c r="X86">
-        <v>1.86673809523809</v>
+        <v>1.866738095</v>
       </c>
       <c r="Y86">
-        <v>1.86673809523809</v>
+        <v>1.866738095</v>
       </c>
       <c r="Z86">
-        <v>1.86673809523809</v>
+        <v>1.866738095</v>
       </c>
       <c r="AA86">
-        <v>1.86673809523809</v>
+        <v>1.866738095</v>
       </c>
       <c r="AB86">
-        <v>1.86673809523809</v>
+        <v>1.866738095</v>
       </c>
       <c r="AC86">
-        <v>1.86673809523809</v>
+        <v>1.866738095</v>
       </c>
       <c r="AD86">
-        <v>1.86673809523809</v>
+        <v>1.866738095</v>
       </c>
       <c r="AE86">
-        <v>1.86673809523809</v>
+        <v>1.866738095</v>
       </c>
       <c r="AF86">
-        <v>1.86673809523809</v>
+        <v>1.866738095</v>
       </c>
       <c r="AG86">
-        <v>1.86673809523809</v>
+        <v>1.866738095</v>
       </c>
       <c r="AH86">
-        <v>1.86673809523809</v>
+        <v>1.866738095</v>
       </c>
       <c r="AI86">
-        <v>1.86673809523809</v>
+        <v>1.866738095</v>
       </c>
       <c r="AJ86">
-        <v>1.86673809523809</v>
+        <v>1.866738095</v>
       </c>
       <c r="AK86">
-        <v>1.86673809523809</v>
+        <v>1.866738095</v>
       </c>
       <c r="AL86">
-        <v>1.86673809523809</v>
+        <v>1.866738095</v>
       </c>
       <c r="AM86">
-        <v>1.86673809523809</v>
+        <v>1.866738095</v>
       </c>
       <c r="AN86">
-        <v>1.86673809523809</v>
+        <v>1.866738095</v>
       </c>
       <c r="AO86">
-        <v>1.86673809523809</v>
+        <v>1.866738095</v>
       </c>
       <c r="AP86">
-        <v>1.86673809523809</v>
+        <v>1.866738095</v>
       </c>
       <c r="AQ86">
-        <v>1.86673809523809</v>
+        <v>1.866738095</v>
       </c>
       <c r="AR86">
-        <v>1.86673809523809</v>
+        <v>1.866738095</v>
       </c>
       <c r="AS86">
-        <v>1.86673809523809</v>
+        <v>1.866738095</v>
       </c>
     </row>
     <row r="87" spans="1:45">
@@ -12849,112 +12849,112 @@
         <v>1</v>
       </c>
       <c r="J97">
-        <v>0.056947487651181</v>
+        <v>0.056947488</v>
       </c>
       <c r="K97">
-        <v>0.056947487651181</v>
+        <v>0.056947488</v>
       </c>
       <c r="L97">
-        <v>0.056947487651181</v>
+        <v>0.056947488</v>
       </c>
       <c r="M97">
-        <v>0.056947487651181</v>
+        <v>0.056947488</v>
       </c>
       <c r="N97">
-        <v>0.056947487651181</v>
+        <v>0.056947488</v>
       </c>
       <c r="O97">
-        <v>0.056947487651181</v>
+        <v>0.056947488</v>
       </c>
       <c r="P97">
-        <v>0.056947487651181</v>
+        <v>0.056947488</v>
       </c>
       <c r="Q97">
-        <v>0.056947487651181</v>
+        <v>0.056947488</v>
       </c>
       <c r="R97">
-        <v>0.056947487651181</v>
+        <v>0.056947488</v>
       </c>
       <c r="S97">
-        <v>0.056947487651181</v>
+        <v>0.056947488</v>
       </c>
       <c r="T97">
-        <v>0.056947487651181</v>
+        <v>0.056947488</v>
       </c>
       <c r="U97">
-        <v>0.056947487651181</v>
+        <v>0.056947488</v>
       </c>
       <c r="V97">
-        <v>0.056947487651181</v>
+        <v>0.056947488</v>
       </c>
       <c r="W97">
-        <v>0.056947487651181</v>
+        <v>0.056947488</v>
       </c>
       <c r="X97">
-        <v>0.056947487651181</v>
+        <v>0.056947488</v>
       </c>
       <c r="Y97">
-        <v>0.056947487651181</v>
+        <v>0.056947488</v>
       </c>
       <c r="Z97">
-        <v>0.056947487651181</v>
+        <v>0.056947488</v>
       </c>
       <c r="AA97">
-        <v>0.0569474876511811</v>
+        <v>0.056947488</v>
       </c>
       <c r="AB97">
-        <v>0.0569474876511811</v>
+        <v>0.056947488</v>
       </c>
       <c r="AC97">
-        <v>0.0569474876511811</v>
+        <v>0.056947488</v>
       </c>
       <c r="AD97">
-        <v>0.0569474876511811</v>
+        <v>0.056947488</v>
       </c>
       <c r="AE97">
-        <v>0.0569474876511811</v>
+        <v>0.056947488</v>
       </c>
       <c r="AF97">
-        <v>0.0569474876511811</v>
+        <v>0.056947488</v>
       </c>
       <c r="AG97">
-        <v>0.0569474876511811</v>
+        <v>0.056947488</v>
       </c>
       <c r="AH97">
-        <v>0.0569474876511811</v>
+        <v>0.056947488</v>
       </c>
       <c r="AI97">
-        <v>0.0569474876511811</v>
+        <v>0.056947488</v>
       </c>
       <c r="AJ97">
-        <v>0.0569474876511811</v>
+        <v>0.056947488</v>
       </c>
       <c r="AK97">
-        <v>0.0569474876511811</v>
+        <v>0.056947488</v>
       </c>
       <c r="AL97">
-        <v>0.0569474876511811</v>
+        <v>0.056947488</v>
       </c>
       <c r="AM97">
-        <v>0.0569474876511811</v>
+        <v>0.056947488</v>
       </c>
       <c r="AN97">
-        <v>0.0569474876511811</v>
+        <v>0.056947488</v>
       </c>
       <c r="AO97">
-        <v>0.0569474876511811</v>
+        <v>0.056947488</v>
       </c>
       <c r="AP97">
-        <v>0.0569474876511811</v>
+        <v>0.056947488</v>
       </c>
       <c r="AQ97">
-        <v>0.0569474876511811</v>
+        <v>0.056947488</v>
       </c>
       <c r="AR97">
-        <v>0.0569474876511811</v>
+        <v>0.056947488</v>
       </c>
       <c r="AS97">
-        <v>0.0569474876511811</v>
+        <v>0.056947488</v>
       </c>
     </row>
     <row r="98" spans="1:45">
@@ -12971,112 +12971,112 @@
         <v>1</v>
       </c>
       <c r="J98">
-        <v>0.109927728802231</v>
+        <v>0.109927729</v>
       </c>
       <c r="K98">
-        <v>0.109927728802231</v>
+        <v>0.109927729</v>
       </c>
       <c r="L98">
-        <v>0.109927728802231</v>
+        <v>0.109927729</v>
       </c>
       <c r="M98">
-        <v>0.109927728802231</v>
+        <v>0.109927729</v>
       </c>
       <c r="N98">
-        <v>0.109927728802231</v>
+        <v>0.109927729</v>
       </c>
       <c r="O98">
-        <v>0.109927728802231</v>
+        <v>0.109927729</v>
       </c>
       <c r="P98">
-        <v>0.109927728802231</v>
+        <v>0.109927729</v>
       </c>
       <c r="Q98">
-        <v>0.109927728802231</v>
+        <v>0.109927729</v>
       </c>
       <c r="R98">
-        <v>0.109927728802231</v>
+        <v>0.109927729</v>
       </c>
       <c r="S98">
-        <v>0.109927728802231</v>
+        <v>0.109927729</v>
       </c>
       <c r="T98">
-        <v>0.109927728802231</v>
+        <v>0.109927729</v>
       </c>
       <c r="U98">
-        <v>0.109927728802231</v>
+        <v>0.109927729</v>
       </c>
       <c r="V98">
-        <v>0.109927728802231</v>
+        <v>0.109927729</v>
       </c>
       <c r="W98">
-        <v>0.109927728802231</v>
+        <v>0.109927729</v>
       </c>
       <c r="X98">
-        <v>0.109927728802231</v>
+        <v>0.109927729</v>
       </c>
       <c r="Y98">
-        <v>0.109927728802231</v>
+        <v>0.109927729</v>
       </c>
       <c r="Z98">
-        <v>0.109927728802231</v>
+        <v>0.109927729</v>
       </c>
       <c r="AA98">
-        <v>0.109927728802232</v>
+        <v>0.109927729</v>
       </c>
       <c r="AB98">
-        <v>0.109927728802232</v>
+        <v>0.109927729</v>
       </c>
       <c r="AC98">
-        <v>0.109927728802232</v>
+        <v>0.109927729</v>
       </c>
       <c r="AD98">
-        <v>0.109927728802232</v>
+        <v>0.109927729</v>
       </c>
       <c r="AE98">
-        <v>0.109927728802232</v>
+        <v>0.109927729</v>
       </c>
       <c r="AF98">
-        <v>0.109927728802232</v>
+        <v>0.109927729</v>
       </c>
       <c r="AG98">
-        <v>0.109927728802232</v>
+        <v>0.109927729</v>
       </c>
       <c r="AH98">
-        <v>0.109927728802232</v>
+        <v>0.109927729</v>
       </c>
       <c r="AI98">
-        <v>0.109927728802232</v>
+        <v>0.109927729</v>
       </c>
       <c r="AJ98">
-        <v>0.109927728802232</v>
+        <v>0.109927729</v>
       </c>
       <c r="AK98">
-        <v>0.109927728802232</v>
+        <v>0.109927729</v>
       </c>
       <c r="AL98">
-        <v>0.109927728802232</v>
+        <v>0.109927729</v>
       </c>
       <c r="AM98">
-        <v>0.109927728802232</v>
+        <v>0.109927729</v>
       </c>
       <c r="AN98">
-        <v>0.109927728802232</v>
+        <v>0.109927729</v>
       </c>
       <c r="AO98">
-        <v>0.109927728802232</v>
+        <v>0.109927729</v>
       </c>
       <c r="AP98">
-        <v>0.109927728802232</v>
+        <v>0.109927729</v>
       </c>
       <c r="AQ98">
-        <v>0.109927728802232</v>
+        <v>0.109927729</v>
       </c>
       <c r="AR98">
-        <v>0.109927728802232</v>
+        <v>0.109927729</v>
       </c>
       <c r="AS98">
-        <v>0.109927728802232</v>
+        <v>0.109927729</v>
       </c>
     </row>
     <row r="99" spans="1:45">
@@ -13093,112 +13093,112 @@
         <v>1</v>
       </c>
       <c r="J99">
-        <v>0.0467616205881656</v>
+        <v>0.046761621</v>
       </c>
       <c r="K99">
-        <v>0.0467616205881656</v>
+        <v>0.046761621</v>
       </c>
       <c r="L99">
-        <v>0.0467616205881656</v>
+        <v>0.046761621</v>
       </c>
       <c r="M99">
-        <v>0.0467616205881656</v>
+        <v>0.046761621</v>
       </c>
       <c r="N99">
-        <v>0.0467616205881656</v>
+        <v>0.046761621</v>
       </c>
       <c r="O99">
-        <v>0.0467616205881656</v>
+        <v>0.046761621</v>
       </c>
       <c r="P99">
-        <v>0.0467616205881656</v>
+        <v>0.046761621</v>
       </c>
       <c r="Q99">
-        <v>0.0467616205881656</v>
+        <v>0.046761621</v>
       </c>
       <c r="R99">
-        <v>0.0467616205881656</v>
+        <v>0.046761621</v>
       </c>
       <c r="S99">
-        <v>0.0467616205881656</v>
+        <v>0.046761621</v>
       </c>
       <c r="T99">
-        <v>0.0467616205881656</v>
+        <v>0.046761621</v>
       </c>
       <c r="U99">
-        <v>0.0467616205881656</v>
+        <v>0.046761621</v>
       </c>
       <c r="V99">
-        <v>0.0467616205881656</v>
+        <v>0.046761621</v>
       </c>
       <c r="W99">
-        <v>0.0467616205881656</v>
+        <v>0.046761621</v>
       </c>
       <c r="X99">
-        <v>0.0467616205881656</v>
+        <v>0.046761621</v>
       </c>
       <c r="Y99">
-        <v>0.0467616205881656</v>
+        <v>0.046761621</v>
       </c>
       <c r="Z99">
-        <v>0.0467616205881656</v>
+        <v>0.046761621</v>
       </c>
       <c r="AA99">
-        <v>0.0467616205881656</v>
+        <v>0.046761621</v>
       </c>
       <c r="AB99">
-        <v>0.0467616205881656</v>
+        <v>0.046761621</v>
       </c>
       <c r="AC99">
-        <v>0.0467616205881656</v>
+        <v>0.046761621</v>
       </c>
       <c r="AD99">
-        <v>0.0467616205881656</v>
+        <v>0.046761621</v>
       </c>
       <c r="AE99">
-        <v>0.0467616205881656</v>
+        <v>0.046761621</v>
       </c>
       <c r="AF99">
-        <v>0.0467616205881656</v>
+        <v>0.046761621</v>
       </c>
       <c r="AG99">
-        <v>0.0467616205881656</v>
+        <v>0.046761621</v>
       </c>
       <c r="AH99">
-        <v>0.0467616205881656</v>
+        <v>0.046761621</v>
       </c>
       <c r="AI99">
-        <v>0.0467616205881656</v>
+        <v>0.046761621</v>
       </c>
       <c r="AJ99">
-        <v>0.0467616205881656</v>
+        <v>0.046761621</v>
       </c>
       <c r="AK99">
-        <v>0.0467616205881656</v>
+        <v>0.046761621</v>
       </c>
       <c r="AL99">
-        <v>0.0467616205881656</v>
+        <v>0.046761621</v>
       </c>
       <c r="AM99">
-        <v>0.0467616205881656</v>
+        <v>0.046761621</v>
       </c>
       <c r="AN99">
-        <v>0.0467616205881656</v>
+        <v>0.046761621</v>
       </c>
       <c r="AO99">
-        <v>0.0467616205881656</v>
+        <v>0.046761621</v>
       </c>
       <c r="AP99">
-        <v>0.0467616205881656</v>
+        <v>0.046761621</v>
       </c>
       <c r="AQ99">
-        <v>0.0467616205881656</v>
+        <v>0.046761621</v>
       </c>
       <c r="AR99">
-        <v>0.0467616205881656</v>
+        <v>0.046761621</v>
       </c>
       <c r="AS99">
-        <v>0.0467616205881656</v>
+        <v>0.046761621</v>
       </c>
     </row>
     <row r="100" spans="1:45">
@@ -13215,112 +13215,112 @@
         <v>1</v>
       </c>
       <c r="J100">
-        <v>0.0406843818147015</v>
+        <v>0.040684382</v>
       </c>
       <c r="K100">
-        <v>0.0406843818147015</v>
+        <v>0.040684382</v>
       </c>
       <c r="L100">
-        <v>0.0406843818147015</v>
+        <v>0.040684382</v>
       </c>
       <c r="M100">
-        <v>0.0406843818147015</v>
+        <v>0.040684382</v>
       </c>
       <c r="N100">
-        <v>0.0406843818147015</v>
+        <v>0.040684382</v>
       </c>
       <c r="O100">
-        <v>0.0406843818147015</v>
+        <v>0.040684382</v>
       </c>
       <c r="P100">
-        <v>0.0406843818147015</v>
+        <v>0.040684382</v>
       </c>
       <c r="Q100">
-        <v>0.0406843818147015</v>
+        <v>0.040684382</v>
       </c>
       <c r="R100">
-        <v>0.0406843818147015</v>
+        <v>0.040684382</v>
       </c>
       <c r="S100">
-        <v>0.0406843818147015</v>
+        <v>0.040684382</v>
       </c>
       <c r="T100">
-        <v>0.0406843818147015</v>
+        <v>0.040684382</v>
       </c>
       <c r="U100">
-        <v>0.0406843818147015</v>
+        <v>0.040684382</v>
       </c>
       <c r="V100">
-        <v>0.0406843818147015</v>
+        <v>0.040684382</v>
       </c>
       <c r="W100">
-        <v>0.0406843818147015</v>
+        <v>0.040684382</v>
       </c>
       <c r="X100">
-        <v>0.0406843818147015</v>
+        <v>0.040684382</v>
       </c>
       <c r="Y100">
-        <v>0.0406843818147015</v>
+        <v>0.040684382</v>
       </c>
       <c r="Z100">
-        <v>0.0406843818147015</v>
+        <v>0.040684382</v>
       </c>
       <c r="AA100">
-        <v>0.0406843818147016</v>
+        <v>0.040684382</v>
       </c>
       <c r="AB100">
-        <v>0.0406843818147016</v>
+        <v>0.040684382</v>
       </c>
       <c r="AC100">
-        <v>0.0406843818147016</v>
+        <v>0.040684382</v>
       </c>
       <c r="AD100">
-        <v>0.0406843818147016</v>
+        <v>0.040684382</v>
       </c>
       <c r="AE100">
-        <v>0.0406843818147016</v>
+        <v>0.040684382</v>
       </c>
       <c r="AF100">
-        <v>0.0406843818147016</v>
+        <v>0.040684382</v>
       </c>
       <c r="AG100">
-        <v>0.0406843818147016</v>
+        <v>0.040684382</v>
       </c>
       <c r="AH100">
-        <v>0.0406843818147016</v>
+        <v>0.040684382</v>
       </c>
       <c r="AI100">
-        <v>0.0406843818147016</v>
+        <v>0.040684382</v>
       </c>
       <c r="AJ100">
-        <v>0.0406843818147016</v>
+        <v>0.040684382</v>
       </c>
       <c r="AK100">
-        <v>0.0406843818147016</v>
+        <v>0.040684382</v>
       </c>
       <c r="AL100">
-        <v>0.0406843818147016</v>
+        <v>0.040684382</v>
       </c>
       <c r="AM100">
-        <v>0.0406843818147016</v>
+        <v>0.040684382</v>
       </c>
       <c r="AN100">
-        <v>0.0406843818147016</v>
+        <v>0.040684382</v>
       </c>
       <c r="AO100">
-        <v>0.0406843818147016</v>
+        <v>0.040684382</v>
       </c>
       <c r="AP100">
-        <v>0.0406843818147016</v>
+        <v>0.040684382</v>
       </c>
       <c r="AQ100">
-        <v>0.0406843818147016</v>
+        <v>0.040684382</v>
       </c>
       <c r="AR100">
-        <v>0.0406843818147016</v>
+        <v>0.040684382</v>
       </c>
       <c r="AS100">
-        <v>0.0406843818147016</v>
+        <v>0.040684382</v>
       </c>
     </row>
     <row r="101" spans="1:45">
@@ -13337,112 +13337,112 @@
         <v>1</v>
       </c>
       <c r="J101">
-        <v>0.0240312533986499</v>
+        <v>0.024031253</v>
       </c>
       <c r="K101">
-        <v>0.0240312533986499</v>
+        <v>0.024031253</v>
       </c>
       <c r="L101">
-        <v>0.0240312533986499</v>
+        <v>0.024031253</v>
       </c>
       <c r="M101">
-        <v>0.0240312533986499</v>
+        <v>0.024031253</v>
       </c>
       <c r="N101">
-        <v>0.0240312533986499</v>
+        <v>0.024031253</v>
       </c>
       <c r="O101">
-        <v>0.0240312533986499</v>
+        <v>0.024031253</v>
       </c>
       <c r="P101">
-        <v>0.0240312533986499</v>
+        <v>0.024031253</v>
       </c>
       <c r="Q101">
-        <v>0.0240312533986499</v>
+        <v>0.024031253</v>
       </c>
       <c r="R101">
-        <v>0.0240312533986499</v>
+        <v>0.024031253</v>
       </c>
       <c r="S101">
-        <v>0.0240312533986499</v>
+        <v>0.024031253</v>
       </c>
       <c r="T101">
-        <v>0.0240312533986499</v>
+        <v>0.024031253</v>
       </c>
       <c r="U101">
-        <v>0.0240312533986499</v>
+        <v>0.024031253</v>
       </c>
       <c r="V101">
-        <v>0.0240312533986499</v>
+        <v>0.024031253</v>
       </c>
       <c r="W101">
-        <v>0.0240312533986499</v>
+        <v>0.024031253</v>
       </c>
       <c r="X101">
-        <v>0.0240312533986499</v>
+        <v>0.024031253</v>
       </c>
       <c r="Y101">
-        <v>0.0240312533986499</v>
+        <v>0.024031253</v>
       </c>
       <c r="Z101">
-        <v>0.0240312533986499</v>
+        <v>0.024031253</v>
       </c>
       <c r="AA101">
-        <v>0.02403125339865</v>
+        <v>0.024031253</v>
       </c>
       <c r="AB101">
-        <v>0.02403125339865</v>
+        <v>0.024031253</v>
       </c>
       <c r="AC101">
-        <v>0.02403125339865</v>
+        <v>0.024031253</v>
       </c>
       <c r="AD101">
-        <v>0.02403125339865</v>
+        <v>0.024031253</v>
       </c>
       <c r="AE101">
-        <v>0.02403125339865</v>
+        <v>0.024031253</v>
       </c>
       <c r="AF101">
-        <v>0.02403125339865</v>
+        <v>0.024031253</v>
       </c>
       <c r="AG101">
-        <v>0.02403125339865</v>
+        <v>0.024031253</v>
       </c>
       <c r="AH101">
-        <v>0.02403125339865</v>
+        <v>0.024031253</v>
       </c>
       <c r="AI101">
-        <v>0.02403125339865</v>
+        <v>0.024031253</v>
       </c>
       <c r="AJ101">
-        <v>0.02403125339865</v>
+        <v>0.024031253</v>
       </c>
       <c r="AK101">
-        <v>0.02403125339865</v>
+        <v>0.024031253</v>
       </c>
       <c r="AL101">
-        <v>0.02403125339865</v>
+        <v>0.024031253</v>
       </c>
       <c r="AM101">
-        <v>0.02403125339865</v>
+        <v>0.024031253</v>
       </c>
       <c r="AN101">
-        <v>0.02403125339865</v>
+        <v>0.024031253</v>
       </c>
       <c r="AO101">
-        <v>0.02403125339865</v>
+        <v>0.024031253</v>
       </c>
       <c r="AP101">
-        <v>0.02403125339865</v>
+        <v>0.024031253</v>
       </c>
       <c r="AQ101">
-        <v>0.02403125339865</v>
+        <v>0.024031253</v>
       </c>
       <c r="AR101">
-        <v>0.02403125339865</v>
+        <v>0.024031253</v>
       </c>
       <c r="AS101">
-        <v>0.02403125339865</v>
+        <v>0.024031253</v>
       </c>
     </row>
     <row r="102" spans="1:45">
@@ -13459,112 +13459,112 @@
         <v>1</v>
       </c>
       <c r="J102">
-        <v>0.0461351747938064</v>
+        <v>0.046135175</v>
       </c>
       <c r="K102">
-        <v>0.0461351747938064</v>
+        <v>0.046135175</v>
       </c>
       <c r="L102">
-        <v>0.0461351747938064</v>
+        <v>0.046135175</v>
       </c>
       <c r="M102">
-        <v>0.0461351747938064</v>
+        <v>0.046135175</v>
       </c>
       <c r="N102">
-        <v>0.0461351747938064</v>
+        <v>0.046135175</v>
       </c>
       <c r="O102">
-        <v>0.0461351747938064</v>
+        <v>0.046135175</v>
       </c>
       <c r="P102">
-        <v>0.0461351747938064</v>
+        <v>0.046135175</v>
       </c>
       <c r="Q102">
-        <v>0.0461351747938064</v>
+        <v>0.046135175</v>
       </c>
       <c r="R102">
-        <v>0.0461351747938064</v>
+        <v>0.046135175</v>
       </c>
       <c r="S102">
-        <v>0.0461351747938064</v>
+        <v>0.046135175</v>
       </c>
       <c r="T102">
-        <v>0.0461351747938064</v>
+        <v>0.046135175</v>
       </c>
       <c r="U102">
-        <v>0.0461351747938064</v>
+        <v>0.046135175</v>
       </c>
       <c r="V102">
-        <v>0.0461351747938064</v>
+        <v>0.046135175</v>
       </c>
       <c r="W102">
-        <v>0.0461351747938064</v>
+        <v>0.046135175</v>
       </c>
       <c r="X102">
-        <v>0.0461351747938064</v>
+        <v>0.046135175</v>
       </c>
       <c r="Y102">
-        <v>0.0461351747938064</v>
+        <v>0.046135175</v>
       </c>
       <c r="Z102">
-        <v>0.0461351747938064</v>
+        <v>0.046135175</v>
       </c>
       <c r="AA102">
-        <v>0.0461351747938064</v>
+        <v>0.046135175</v>
       </c>
       <c r="AB102">
-        <v>0.0461351747938064</v>
+        <v>0.046135175</v>
       </c>
       <c r="AC102">
-        <v>0.0461351747938064</v>
+        <v>0.046135175</v>
       </c>
       <c r="AD102">
-        <v>0.0461351747938064</v>
+        <v>0.046135175</v>
       </c>
       <c r="AE102">
-        <v>0.0461351747938064</v>
+        <v>0.046135175</v>
       </c>
       <c r="AF102">
-        <v>0.0461351747938064</v>
+        <v>0.046135175</v>
       </c>
       <c r="AG102">
-        <v>0.0461351747938064</v>
+        <v>0.046135175</v>
       </c>
       <c r="AH102">
-        <v>0.0461351747938064</v>
+        <v>0.046135175</v>
       </c>
       <c r="AI102">
-        <v>0.0461351747938064</v>
+        <v>0.046135175</v>
       </c>
       <c r="AJ102">
-        <v>0.0461351747938064</v>
+        <v>0.046135175</v>
       </c>
       <c r="AK102">
-        <v>0.0461351747938064</v>
+        <v>0.046135175</v>
       </c>
       <c r="AL102">
-        <v>0.0461351747938064</v>
+        <v>0.046135175</v>
       </c>
       <c r="AM102">
-        <v>0.0461351747938064</v>
+        <v>0.046135175</v>
       </c>
       <c r="AN102">
-        <v>0.0461351747938064</v>
+        <v>0.046135175</v>
       </c>
       <c r="AO102">
-        <v>0.0461351747938064</v>
+        <v>0.046135175</v>
       </c>
       <c r="AP102">
-        <v>0.0461351747938064</v>
+        <v>0.046135175</v>
       </c>
       <c r="AQ102">
-        <v>0.0461351747938064</v>
+        <v>0.046135175</v>
       </c>
       <c r="AR102">
-        <v>0.0461351747938064</v>
+        <v>0.046135175</v>
       </c>
       <c r="AS102">
-        <v>0.0461351747938064</v>
+        <v>0.046135175</v>
       </c>
     </row>
     <row r="103" spans="1:45">
@@ -13703,112 +13703,112 @@
         <v>1</v>
       </c>
       <c r="J104">
-        <v>0.105163771605354</v>
+        <v>0.105163772</v>
       </c>
       <c r="K104">
-        <v>0.105163771605354</v>
+        <v>0.105163772</v>
       </c>
       <c r="L104">
-        <v>0.105163771605354</v>
+        <v>0.105163772</v>
       </c>
       <c r="M104">
-        <v>0.105163771605354</v>
+        <v>0.105163772</v>
       </c>
       <c r="N104">
-        <v>0.105163771605354</v>
+        <v>0.105163772</v>
       </c>
       <c r="O104">
-        <v>0.105163771605354</v>
+        <v>0.105163772</v>
       </c>
       <c r="P104">
-        <v>0.105163771605354</v>
+        <v>0.105163772</v>
       </c>
       <c r="Q104">
-        <v>0.105163771605354</v>
+        <v>0.105163772</v>
       </c>
       <c r="R104">
-        <v>0.105163771605354</v>
+        <v>0.105163772</v>
       </c>
       <c r="S104">
-        <v>0.105163771605354</v>
+        <v>0.105163772</v>
       </c>
       <c r="T104">
-        <v>0.105163771605354</v>
+        <v>0.105163772</v>
       </c>
       <c r="U104">
-        <v>0.105163771605354</v>
+        <v>0.105163772</v>
       </c>
       <c r="V104">
-        <v>0.105163771605354</v>
+        <v>0.105163772</v>
       </c>
       <c r="W104">
-        <v>0.105163771605354</v>
+        <v>0.105163772</v>
       </c>
       <c r="X104">
-        <v>0.105163771605354</v>
+        <v>0.105163772</v>
       </c>
       <c r="Y104">
-        <v>0.105163771605354</v>
+        <v>0.105163772</v>
       </c>
       <c r="Z104">
-        <v>0.105163771605354</v>
+        <v>0.105163772</v>
       </c>
       <c r="AA104">
-        <v>0.105163771605354</v>
+        <v>0.105163772</v>
       </c>
       <c r="AB104">
-        <v>0.105163771605354</v>
+        <v>0.105163772</v>
       </c>
       <c r="AC104">
-        <v>0.105163771605354</v>
+        <v>0.105163772</v>
       </c>
       <c r="AD104">
-        <v>0.105163771605354</v>
+        <v>0.105163772</v>
       </c>
       <c r="AE104">
-        <v>0.105163771605354</v>
+        <v>0.105163772</v>
       </c>
       <c r="AF104">
-        <v>0.105163771605354</v>
+        <v>0.105163772</v>
       </c>
       <c r="AG104">
-        <v>0.105163771605354</v>
+        <v>0.105163772</v>
       </c>
       <c r="AH104">
-        <v>0.105163771605354</v>
+        <v>0.105163772</v>
       </c>
       <c r="AI104">
-        <v>0.105163771605354</v>
+        <v>0.105163772</v>
       </c>
       <c r="AJ104">
-        <v>0.105163771605354</v>
+        <v>0.105163772</v>
       </c>
       <c r="AK104">
-        <v>0.105163771605354</v>
+        <v>0.105163772</v>
       </c>
       <c r="AL104">
-        <v>0.105163771605354</v>
+        <v>0.105163772</v>
       </c>
       <c r="AM104">
-        <v>0.105163771605354</v>
+        <v>0.105163772</v>
       </c>
       <c r="AN104">
-        <v>0.105163771605354</v>
+        <v>0.105163772</v>
       </c>
       <c r="AO104">
-        <v>0.105163771605354</v>
+        <v>0.105163772</v>
       </c>
       <c r="AP104">
-        <v>0.105163771605354</v>
+        <v>0.105163772</v>
       </c>
       <c r="AQ104">
-        <v>0.105163771605354</v>
+        <v>0.105163772</v>
       </c>
       <c r="AR104">
-        <v>0.105163771605354</v>
+        <v>0.105163772</v>
       </c>
       <c r="AS104">
-        <v>0.105163771605354</v>
+        <v>0.105163772</v>
       </c>
     </row>
     <row r="105" spans="1:45">
@@ -13825,112 +13825,112 @@
         <v>1</v>
       </c>
       <c r="J105">
-        <v>0.0551216230133952</v>
+        <v>0.055121623</v>
       </c>
       <c r="K105">
-        <v>0.0551216230133952</v>
+        <v>0.055121623</v>
       </c>
       <c r="L105">
-        <v>0.0551216230133952</v>
+        <v>0.055121623</v>
       </c>
       <c r="M105">
-        <v>0.0551216230133952</v>
+        <v>0.055121623</v>
       </c>
       <c r="N105">
-        <v>0.0551216230133952</v>
+        <v>0.055121623</v>
       </c>
       <c r="O105">
-        <v>0.0551216230133952</v>
+        <v>0.055121623</v>
       </c>
       <c r="P105">
-        <v>0.0551216230133952</v>
+        <v>0.055121623</v>
       </c>
       <c r="Q105">
-        <v>0.0551216230133952</v>
+        <v>0.055121623</v>
       </c>
       <c r="R105">
-        <v>0.0551216230133952</v>
+        <v>0.055121623</v>
       </c>
       <c r="S105">
-        <v>0.0551216230133952</v>
+        <v>0.055121623</v>
       </c>
       <c r="T105">
-        <v>0.0551216230133952</v>
+        <v>0.055121623</v>
       </c>
       <c r="U105">
-        <v>0.0551216230133952</v>
+        <v>0.055121623</v>
       </c>
       <c r="V105">
-        <v>0.0551216230133952</v>
+        <v>0.055121623</v>
       </c>
       <c r="W105">
-        <v>0.0551216230133952</v>
+        <v>0.055121623</v>
       </c>
       <c r="X105">
-        <v>0.0551216230133952</v>
+        <v>0.055121623</v>
       </c>
       <c r="Y105">
-        <v>0.0551216230133952</v>
+        <v>0.055121623</v>
       </c>
       <c r="Z105">
-        <v>0.0551216230133952</v>
+        <v>0.055121623</v>
       </c>
       <c r="AA105">
-        <v>0.0551216230133952</v>
+        <v>0.055121623</v>
       </c>
       <c r="AB105">
-        <v>0.0551216230133952</v>
+        <v>0.055121623</v>
       </c>
       <c r="AC105">
-        <v>0.0551216230133952</v>
+        <v>0.055121623</v>
       </c>
       <c r="AD105">
-        <v>0.0551216230133952</v>
+        <v>0.055121623</v>
       </c>
       <c r="AE105">
-        <v>0.0551216230133952</v>
+        <v>0.055121623</v>
       </c>
       <c r="AF105">
-        <v>0.0551216230133952</v>
+        <v>0.055121623</v>
       </c>
       <c r="AG105">
-        <v>0.0551216230133952</v>
+        <v>0.055121623</v>
       </c>
       <c r="AH105">
-        <v>0.0551216230133952</v>
+        <v>0.055121623</v>
       </c>
       <c r="AI105">
-        <v>0.0551216230133952</v>
+        <v>0.055121623</v>
       </c>
       <c r="AJ105">
-        <v>0.0551216230133952</v>
+        <v>0.055121623</v>
       </c>
       <c r="AK105">
-        <v>0.0551216230133952</v>
+        <v>0.055121623</v>
       </c>
       <c r="AL105">
-        <v>0.0551216230133952</v>
+        <v>0.055121623</v>
       </c>
       <c r="AM105">
-        <v>0.0551216230133952</v>
+        <v>0.055121623</v>
       </c>
       <c r="AN105">
-        <v>0.0551216230133952</v>
+        <v>0.055121623</v>
       </c>
       <c r="AO105">
-        <v>0.0551216230133952</v>
+        <v>0.055121623</v>
       </c>
       <c r="AP105">
-        <v>0.0551216230133952</v>
+        <v>0.055121623</v>
       </c>
       <c r="AQ105">
-        <v>0.0551216230133952</v>
+        <v>0.055121623</v>
       </c>
       <c r="AR105">
-        <v>0.0551216230133952</v>
+        <v>0.055121623</v>
       </c>
       <c r="AS105">
-        <v>0.0551216230133952</v>
+        <v>0.055121623</v>
       </c>
     </row>
     <row r="106" spans="1:45">
@@ -14435,112 +14435,112 @@
         <v>1</v>
       </c>
       <c r="J110">
-        <v>0.0133281107617239</v>
+        <v>0.013328111</v>
       </c>
       <c r="K110">
-        <v>0.0133281107617239</v>
+        <v>0.013328111</v>
       </c>
       <c r="L110">
-        <v>0.0133281107617239</v>
+        <v>0.013328111</v>
       </c>
       <c r="M110">
-        <v>0.0133281107617239</v>
+        <v>0.013328111</v>
       </c>
       <c r="N110">
-        <v>0.0133281107617239</v>
+        <v>0.013328111</v>
       </c>
       <c r="O110">
-        <v>0.0133281107617239</v>
+        <v>0.013328111</v>
       </c>
       <c r="P110">
-        <v>0.0133281107617239</v>
+        <v>0.013328111</v>
       </c>
       <c r="Q110">
-        <v>0.0133281107617239</v>
+        <v>0.013328111</v>
       </c>
       <c r="R110">
-        <v>0.0133281107617239</v>
+        <v>0.013328111</v>
       </c>
       <c r="S110">
-        <v>0.0133281107617239</v>
+        <v>0.013328111</v>
       </c>
       <c r="T110">
-        <v>0.0133281107617239</v>
+        <v>0.013328111</v>
       </c>
       <c r="U110">
-        <v>0.0133281107617239</v>
+        <v>0.013328111</v>
       </c>
       <c r="V110">
-        <v>0.0133281107617239</v>
+        <v>0.013328111</v>
       </c>
       <c r="W110">
-        <v>0.0133281107617239</v>
+        <v>0.013328111</v>
       </c>
       <c r="X110">
-        <v>0.0133281107617239</v>
+        <v>0.013328111</v>
       </c>
       <c r="Y110">
-        <v>0.0133281107617239</v>
+        <v>0.013328111</v>
       </c>
       <c r="Z110">
-        <v>0.0133281107617239</v>
+        <v>0.013328111</v>
       </c>
       <c r="AA110">
-        <v>0.0133281107617239</v>
+        <v>0.013328111</v>
       </c>
       <c r="AB110">
-        <v>0.0133281107617239</v>
+        <v>0.013328111</v>
       </c>
       <c r="AC110">
-        <v>0.0133281107617239</v>
+        <v>0.013328111</v>
       </c>
       <c r="AD110">
-        <v>0.0133281107617239</v>
+        <v>0.013328111</v>
       </c>
       <c r="AE110">
-        <v>0.0133281107617239</v>
+        <v>0.013328111</v>
       </c>
       <c r="AF110">
-        <v>0.0133281107617239</v>
+        <v>0.013328111</v>
       </c>
       <c r="AG110">
-        <v>0.0133281107617239</v>
+        <v>0.013328111</v>
       </c>
       <c r="AH110">
-        <v>0.0133281107617239</v>
+        <v>0.013328111</v>
       </c>
       <c r="AI110">
-        <v>0.0133281107617239</v>
+        <v>0.013328111</v>
       </c>
       <c r="AJ110">
-        <v>0.0133281107617239</v>
+        <v>0.013328111</v>
       </c>
       <c r="AK110">
-        <v>0.0133281107617239</v>
+        <v>0.013328111</v>
       </c>
       <c r="AL110">
-        <v>0.0133281107617239</v>
+        <v>0.013328111</v>
       </c>
       <c r="AM110">
-        <v>0.0133281107617239</v>
+        <v>0.013328111</v>
       </c>
       <c r="AN110">
-        <v>0.0133281107617239</v>
+        <v>0.013328111</v>
       </c>
       <c r="AO110">
-        <v>0.0133281107617239</v>
+        <v>0.013328111</v>
       </c>
       <c r="AP110">
-        <v>0.0133281107617239</v>
+        <v>0.013328111</v>
       </c>
       <c r="AQ110">
-        <v>0.0133281107617239</v>
+        <v>0.013328111</v>
       </c>
       <c r="AR110">
-        <v>0.0133281107617239</v>
+        <v>0.013328111</v>
       </c>
       <c r="AS110">
-        <v>0.0133281107617239</v>
+        <v>0.013328111</v>
       </c>
     </row>
     <row r="111" spans="1:45">
@@ -14557,112 +14557,112 @@
         <v>1</v>
       </c>
       <c r="J111">
-        <v>0.0144623715219995</v>
+        <v>0.014462372</v>
       </c>
       <c r="K111">
-        <v>0.0144623715219995</v>
+        <v>0.014462372</v>
       </c>
       <c r="L111">
-        <v>0.0144623715219995</v>
+        <v>0.014462372</v>
       </c>
       <c r="M111">
-        <v>0.0144623715219995</v>
+        <v>0.014462372</v>
       </c>
       <c r="N111">
-        <v>0.0144623715219995</v>
+        <v>0.014462372</v>
       </c>
       <c r="O111">
-        <v>0.0144623715219995</v>
+        <v>0.014462372</v>
       </c>
       <c r="P111">
-        <v>0.0144623715219995</v>
+        <v>0.014462372</v>
       </c>
       <c r="Q111">
-        <v>0.0144623715219995</v>
+        <v>0.014462372</v>
       </c>
       <c r="R111">
-        <v>0.0144623715219995</v>
+        <v>0.014462372</v>
       </c>
       <c r="S111">
-        <v>0.0144623715219995</v>
+        <v>0.014462372</v>
       </c>
       <c r="T111">
-        <v>0.0144623715219995</v>
+        <v>0.014462372</v>
       </c>
       <c r="U111">
-        <v>0.0144623715219995</v>
+        <v>0.014462372</v>
       </c>
       <c r="V111">
-        <v>0.0144623715219995</v>
+        <v>0.014462372</v>
       </c>
       <c r="W111">
-        <v>0.0144623715219995</v>
+        <v>0.014462372</v>
       </c>
       <c r="X111">
-        <v>0.0144623715219995</v>
+        <v>0.014462372</v>
       </c>
       <c r="Y111">
-        <v>0.0144623715219995</v>
+        <v>0.014462372</v>
       </c>
       <c r="Z111">
-        <v>0.0144623715219995</v>
+        <v>0.014462372</v>
       </c>
       <c r="AA111">
-        <v>0.0144623715219996</v>
+        <v>0.014462372</v>
       </c>
       <c r="AB111">
-        <v>0.0144623715219996</v>
+        <v>0.014462372</v>
       </c>
       <c r="AC111">
-        <v>0.0144623715219996</v>
+        <v>0.014462372</v>
       </c>
       <c r="AD111">
-        <v>0.0144623715219996</v>
+        <v>0.014462372</v>
       </c>
       <c r="AE111">
-        <v>0.0144623715219996</v>
+        <v>0.014462372</v>
       </c>
       <c r="AF111">
-        <v>0.0144623715219996</v>
+        <v>0.014462372</v>
       </c>
       <c r="AG111">
-        <v>0.0144623715219996</v>
+        <v>0.014462372</v>
       </c>
       <c r="AH111">
-        <v>0.0144623715219996</v>
+        <v>0.014462372</v>
       </c>
       <c r="AI111">
-        <v>0.0144623715219996</v>
+        <v>0.014462372</v>
       </c>
       <c r="AJ111">
-        <v>0.0144623715219996</v>
+        <v>0.014462372</v>
       </c>
       <c r="AK111">
-        <v>0.0144623715219996</v>
+        <v>0.014462372</v>
       </c>
       <c r="AL111">
-        <v>0.0144623715219996</v>
+        <v>0.014462372</v>
       </c>
       <c r="AM111">
-        <v>0.0144623715219996</v>
+        <v>0.014462372</v>
       </c>
       <c r="AN111">
-        <v>0.0144623715219996</v>
+        <v>0.014462372</v>
       </c>
       <c r="AO111">
-        <v>0.0144623715219996</v>
+        <v>0.014462372</v>
       </c>
       <c r="AP111">
-        <v>0.0144623715219996</v>
+        <v>0.014462372</v>
       </c>
       <c r="AQ111">
-        <v>0.0144623715219996</v>
+        <v>0.014462372</v>
       </c>
       <c r="AR111">
-        <v>0.0144623715219996</v>
+        <v>0.014462372</v>
       </c>
       <c r="AS111">
-        <v>0.0144623715219996</v>
+        <v>0.014462372</v>
       </c>
     </row>
     <row r="112" spans="1:45">
@@ -17030,94 +17030,94 @@
         <v>1652780.05</v>
       </c>
       <c r="P131">
-        <v>1054087.22495</v>
+        <v>1054087.225</v>
       </c>
       <c r="Q131">
-        <v>1054087.22495</v>
+        <v>1054087.225</v>
       </c>
       <c r="R131">
-        <v>1054087.22495</v>
+        <v>1054087.225</v>
       </c>
       <c r="S131">
-        <v>1054087.22495</v>
+        <v>1054087.225</v>
       </c>
       <c r="T131">
-        <v>1054087.22495</v>
+        <v>1054087.225</v>
       </c>
       <c r="U131">
-        <v>1054087.22495</v>
+        <v>1054087.225</v>
       </c>
       <c r="V131">
-        <v>1054087.22495</v>
+        <v>1054087.225</v>
       </c>
       <c r="W131">
-        <v>1054087.22495</v>
+        <v>1054087.225</v>
       </c>
       <c r="X131">
-        <v>1054087.22495</v>
+        <v>1054087.225</v>
       </c>
       <c r="Y131">
-        <v>1054087.22495</v>
+        <v>1054087.225</v>
       </c>
       <c r="Z131">
-        <v>1054087.22495</v>
+        <v>1054087.225</v>
       </c>
       <c r="AA131">
-        <v>1054087.22495</v>
+        <v>1054087.225</v>
       </c>
       <c r="AB131">
-        <v>1054087.22495</v>
+        <v>1054087.225</v>
       </c>
       <c r="AC131">
-        <v>1054087.22495</v>
+        <v>1054087.225</v>
       </c>
       <c r="AD131">
-        <v>1054087.22495</v>
+        <v>1054087.225</v>
       </c>
       <c r="AE131">
-        <v>1054087.22495</v>
+        <v>1054087.225</v>
       </c>
       <c r="AF131">
-        <v>1054087.22495</v>
+        <v>1054087.225</v>
       </c>
       <c r="AG131">
-        <v>1054087.22495</v>
+        <v>1054087.225</v>
       </c>
       <c r="AH131">
-        <v>1054087.22495</v>
+        <v>1054087.225</v>
       </c>
       <c r="AI131">
-        <v>1054087.22495</v>
+        <v>1054087.225</v>
       </c>
       <c r="AJ131">
-        <v>1054087.22495</v>
+        <v>1054087.225</v>
       </c>
       <c r="AK131">
-        <v>1054087.22495</v>
+        <v>1054087.225</v>
       </c>
       <c r="AL131">
-        <v>1054087.22495</v>
+        <v>1054087.225</v>
       </c>
       <c r="AM131">
-        <v>1054087.22495</v>
+        <v>1054087.225</v>
       </c>
       <c r="AN131">
-        <v>1054087.22495</v>
+        <v>1054087.225</v>
       </c>
       <c r="AO131">
-        <v>1054087.22495</v>
+        <v>1054087.225</v>
       </c>
       <c r="AP131">
-        <v>1054087.22495</v>
+        <v>1054087.225</v>
       </c>
       <c r="AQ131">
-        <v>1054087.22495</v>
+        <v>1054087.225</v>
       </c>
       <c r="AR131">
-        <v>1054087.22495</v>
+        <v>1054087.225</v>
       </c>
       <c r="AS131">
-        <v>1054087.22495</v>
+        <v>1054087.225</v>
       </c>
     </row>
     <row r="132" spans="1:45">
@@ -17256,112 +17256,112 @@
         <v>1</v>
       </c>
       <c r="J133">
-        <v>50906.9639320344</v>
+        <v>50906.96393</v>
       </c>
       <c r="K133">
-        <v>85320.0963379993</v>
+        <v>85320.09634</v>
       </c>
       <c r="L133">
-        <v>76640.83963574479</v>
+        <v>76640.83964000001</v>
       </c>
       <c r="M133">
-        <v>78776.0137548417</v>
+        <v>78776.01375</v>
       </c>
       <c r="N133">
-        <v>70335.7275019426</v>
+        <v>70335.72749999999</v>
       </c>
       <c r="O133">
-        <v>91462.62343827001</v>
+        <v>91462.62344</v>
       </c>
       <c r="P133">
         <v>91462.62</v>
       </c>
       <c r="Q133">
-        <v>103676.606130918</v>
+        <v>103676.6061</v>
       </c>
       <c r="R133">
-        <v>117521.657031315</v>
+        <v>117521.657</v>
       </c>
       <c r="S133">
-        <v>133215.586300594</v>
+        <v>133215.5863</v>
       </c>
       <c r="T133">
-        <v>151005.294527819</v>
+        <v>151005.2945</v>
       </c>
       <c r="U133">
-        <v>171170.653589891</v>
+        <v>171170.6536</v>
       </c>
       <c r="V133">
-        <v>194028.909661793</v>
+        <v>194028.9097</v>
       </c>
       <c r="W133">
-        <v>219939.674208077</v>
+        <v>219939.6742</v>
       </c>
       <c r="X133">
-        <v>249310.581475068</v>
+        <v>249310.5815</v>
       </c>
       <c r="Y133">
-        <v>282603.701488769</v>
+        <v>282603.7015</v>
       </c>
       <c r="Z133">
-        <v>320342.809449266</v>
+        <v>320342.8094</v>
       </c>
       <c r="AA133">
-        <v>363121.625885451</v>
+        <v>363121.6259</v>
       </c>
       <c r="AB133">
-        <v>411613.157206129</v>
+        <v>411613.1572</v>
       </c>
       <c r="AC133">
-        <v>466580.283595237</v>
+        <v>466580.2836</v>
       </c>
       <c r="AD133">
-        <v>528887.760822457</v>
+        <v>528887.7608</v>
       </c>
       <c r="AE133">
-        <v>599515.824784518</v>
+        <v>599515.8247999999</v>
       </c>
       <c r="AF133">
-        <v>679575.612807033</v>
+        <v>679575.6128</v>
       </c>
       <c r="AG133">
-        <v>770326.644318431</v>
+        <v>770326.6443</v>
       </c>
       <c r="AH133">
-        <v>873196.635906052</v>
+        <v>873196.6359</v>
       </c>
       <c r="AI133">
-        <v>989803.96248953</v>
+        <v>989803.9625</v>
       </c>
       <c r="AJ133">
-        <v>1121983.11797594</v>
+        <v>1121983.118</v>
       </c>
       <c r="AK133">
-        <v>1271813.57594972</v>
+        <v>1271813.576</v>
       </c>
       <c r="AL133">
-        <v>1441652.50444054</v>
+        <v>1441652.504</v>
       </c>
       <c r="AM133">
-        <v>1634171.84944553</v>
+        <v>1634171.849</v>
       </c>
       <c r="AN133">
-        <v>1852400.37061258</v>
+        <v>1852400.371</v>
       </c>
       <c r="AO133">
-        <v>2099771.29040002</v>
+        <v>2099771.29</v>
       </c>
       <c r="AP133">
-        <v>2380176.30634035</v>
+        <v>2380176.306</v>
       </c>
       <c r="AQ133">
-        <v>2698026.81614185</v>
+        <v>2698026.816</v>
       </c>
       <c r="AR133">
-        <v>3058323.31883552</v>
+        <v>3058323.319</v>
       </c>
       <c r="AS133">
-        <v>3466734.08380289</v>
+        <v>3466734.084</v>
       </c>
     </row>
     <row r="134" spans="1:45">
@@ -17378,112 +17378,112 @@
         <v>1</v>
       </c>
       <c r="J134">
-        <v>50493.7902813971</v>
+        <v>50493.79028</v>
       </c>
       <c r="K134">
-        <v>81527.671897951</v>
+        <v>81527.6719</v>
       </c>
       <c r="L134">
-        <v>77150.2776568117</v>
+        <v>77150.27766000001</v>
       </c>
       <c r="M134">
-        <v>53913.7722110325</v>
+        <v>53913.77221</v>
       </c>
       <c r="N134">
-        <v>49651.1022624016</v>
+        <v>49651.10226</v>
       </c>
       <c r="O134">
-        <v>46900.5251117337</v>
+        <v>46900.52511</v>
       </c>
       <c r="P134">
         <v>46900.53</v>
       </c>
       <c r="Q134">
-        <v>47352.2125892445</v>
+        <v>47352.21259</v>
       </c>
       <c r="R134">
-        <v>47808.2451754171</v>
+        <v>47808.24518</v>
       </c>
       <c r="S134">
-        <v>48268.6696518157</v>
+        <v>48268.66965</v>
       </c>
       <c r="T134">
-        <v>48733.528315198</v>
+        <v>48733.52832</v>
       </c>
       <c r="U134">
-        <v>49202.8638696668</v>
+        <v>49202.86387</v>
       </c>
       <c r="V134">
-        <v>49676.7194305932</v>
+        <v>49676.71943</v>
       </c>
       <c r="W134">
-        <v>50155.1385285774</v>
+        <v>50155.13853</v>
       </c>
       <c r="X134">
-        <v>50638.1651134477</v>
+        <v>50638.16511</v>
       </c>
       <c r="Y134">
-        <v>51125.8435582975</v>
+        <v>51125.84356</v>
       </c>
       <c r="Z134">
-        <v>51618.2186635622</v>
+        <v>51618.21866</v>
       </c>
       <c r="AA134">
-        <v>52115.3356611345</v>
+        <v>52115.33566</v>
       </c>
       <c r="AB134">
-        <v>52617.2402185194</v>
+        <v>52617.24022</v>
       </c>
       <c r="AC134">
-        <v>53123.9784430299</v>
+        <v>53123.97844</v>
       </c>
       <c r="AD134">
-        <v>53635.5968860222</v>
+        <v>53635.59689</v>
       </c>
       <c r="AE134">
-        <v>54152.1425471726</v>
+        <v>54152.14255</v>
       </c>
       <c r="AF134">
-        <v>54673.6628787945</v>
+        <v>54673.66288</v>
       </c>
       <c r="AG134">
-        <v>55200.2057901982</v>
+        <v>55200.20579</v>
       </c>
       <c r="AH134">
-        <v>55731.8196520916</v>
+        <v>55731.81965</v>
       </c>
       <c r="AI134">
-        <v>56268.553301024</v>
+        <v>56268.5533</v>
       </c>
       <c r="AJ134">
-        <v>56810.4560438725</v>
+        <v>56810.45604</v>
       </c>
       <c r="AK134">
-        <v>57357.5776623714</v>
+        <v>57357.57766</v>
       </c>
       <c r="AL134">
-        <v>57909.9684176856</v>
+        <v>57909.96842</v>
       </c>
       <c r="AM134">
-        <v>58467.6790550274</v>
+        <v>58467.67906</v>
       </c>
       <c r="AN134">
-        <v>59030.7608083186</v>
+        <v>59030.76081</v>
       </c>
       <c r="AO134">
-        <v>59599.2654048973</v>
+        <v>59599.2654</v>
       </c>
       <c r="AP134">
-        <v>60173.245070269</v>
+        <v>60173.24507</v>
       </c>
       <c r="AQ134">
-        <v>60752.752532905</v>
+        <v>60752.75253</v>
       </c>
       <c r="AR134">
-        <v>61337.841029086</v>
+        <v>61337.84103</v>
       </c>
       <c r="AS134">
-        <v>61928.5643077928</v>
+        <v>61928.56431</v>
       </c>
     </row>
     <row r="135" spans="1:45">
@@ -17500,112 +17500,112 @@
         <v>1</v>
       </c>
       <c r="J135">
-        <v>6978.86711050192</v>
+        <v>6978.867111</v>
       </c>
       <c r="K135">
-        <v>6615.29124637757</v>
+        <v>6615.291246</v>
       </c>
       <c r="L135">
-        <v>6082.12310777431</v>
+        <v>6082.123108</v>
       </c>
       <c r="M135">
-        <v>4993.74164271564</v>
+        <v>4993.741643</v>
       </c>
       <c r="N135">
-        <v>4528.24252551171</v>
+        <v>4528.242526</v>
       </c>
       <c r="O135">
-        <v>4992.0197687143</v>
+        <v>4992.019769</v>
       </c>
       <c r="P135">
         <v>4992.02</v>
       </c>
       <c r="Q135">
-        <v>5236.61170860921</v>
+        <v>5236.611709</v>
       </c>
       <c r="R135">
-        <v>5493.18756470187</v>
+        <v>5493.187565</v>
       </c>
       <c r="S135">
-        <v>5762.33475004192</v>
+        <v>5762.33475</v>
       </c>
       <c r="T135">
-        <v>6044.66921626821</v>
+        <v>6044.669216</v>
       </c>
       <c r="U135">
-        <v>6340.8370945188</v>
+        <v>6340.837095</v>
       </c>
       <c r="V135">
-        <v>6651.51617412204</v>
+        <v>6651.516174</v>
       </c>
       <c r="W135">
-        <v>6977.41745373836</v>
+        <v>6977.417454</v>
       </c>
       <c r="X135">
-        <v>7319.28676850264</v>
+        <v>7319.286769</v>
       </c>
       <c r="Y135">
-        <v>7677.9064968909</v>
+        <v>7677.906497</v>
       </c>
       <c r="Z135">
-        <v>8054.09735121766</v>
+        <v>8054.097351</v>
       </c>
       <c r="AA135">
-        <v>8448.72025586131</v>
+        <v>8448.720256000001</v>
       </c>
       <c r="AB135">
-        <v>8862.678317516171</v>
+        <v>8862.678318</v>
       </c>
       <c r="AC135">
-        <v>9296.918891980031</v>
+        <v>9296.918892</v>
       </c>
       <c r="AD135">
-        <v>9752.43575220707</v>
+        <v>9752.435751999999</v>
       </c>
       <c r="AE135">
-        <v>10230.271362588</v>
+        <v>10230.27136</v>
       </c>
       <c r="AF135">
-        <v>10731.5192646619</v>
+        <v>10731.51926</v>
       </c>
       <c r="AG135">
-        <v>11257.32657972</v>
+        <v>11257.32658</v>
       </c>
       <c r="AH135">
-        <v>11808.8966340278</v>
+        <v>11808.89663</v>
       </c>
       <c r="AI135">
-        <v>12387.4917126746</v>
+        <v>12387.49171</v>
       </c>
       <c r="AJ135">
-        <v>12994.4359483518</v>
+        <v>12994.43595</v>
       </c>
       <c r="AK135">
-        <v>13631.1183516716</v>
+        <v>13631.11835</v>
       </c>
       <c r="AL135">
-        <v>14298.9959899602</v>
+        <v>14298.99599</v>
       </c>
       <c r="AM135">
-        <v>14999.5973218019</v>
+        <v>14999.59732</v>
       </c>
       <c r="AN135">
-        <v>15734.5256949634</v>
+        <v>15734.52569</v>
       </c>
       <c r="AO135">
-        <v>16505.4630157046</v>
+        <v>16505.46302</v>
       </c>
       <c r="AP135">
-        <v>17314.1735978732</v>
+        <v>17314.1736</v>
       </c>
       <c r="AQ135">
-        <v>18162.5082005912</v>
+        <v>18162.5082</v>
       </c>
       <c r="AR135">
-        <v>19052.4082637743</v>
+        <v>19052.40826</v>
       </c>
       <c r="AS135">
-        <v>19985.9103511771</v>
+        <v>19985.91035</v>
       </c>
     </row>
     <row r="136" spans="1:45">
@@ -17622,112 +17622,112 @@
         <v>1</v>
       </c>
       <c r="J136">
-        <v>99844.3667934667</v>
+        <v>99844.36679</v>
       </c>
       <c r="K136">
-        <v>140230.605686455</v>
+        <v>140230.6057</v>
       </c>
       <c r="L136">
-        <v>45881.3881242963</v>
+        <v>45881.38812</v>
       </c>
       <c r="M136">
-        <v>23835.1478835262</v>
+        <v>23835.14788</v>
       </c>
       <c r="N136">
-        <v>137504.038343003</v>
+        <v>137504.0383</v>
       </c>
       <c r="O136">
-        <v>63447.2792791579</v>
+        <v>63447.27928</v>
       </c>
       <c r="P136">
         <v>63447.28</v>
       </c>
       <c r="Q136">
-        <v>107794.736679923</v>
+        <v>107794.7367</v>
       </c>
       <c r="R136">
-        <v>183139.533418832</v>
+        <v>183139.5334</v>
       </c>
       <c r="S136">
-        <v>311147.739990856</v>
+        <v>311147.74</v>
       </c>
       <c r="T136">
-        <v>528629.260401195</v>
+        <v>528629.2604</v>
       </c>
       <c r="U136">
-        <v>898122.849809312</v>
+        <v>898122.8498</v>
       </c>
       <c r="V136">
-        <v>1525879.69257968</v>
+        <v>1525879.693</v>
       </c>
       <c r="W136">
-        <v>2592416.88007538</v>
+        <v>2592416.88</v>
       </c>
       <c r="X136">
-        <v>4404426.71383728</v>
+        <v>4404426.714</v>
       </c>
       <c r="Y136">
-        <v>7482968.81827101</v>
+        <v>7482968.818</v>
       </c>
       <c r="Z136">
-        <v>12713305.4931527</v>
+        <v>12713305.49</v>
       </c>
       <c r="AA136">
-        <v>21599466.800875</v>
+        <v>21599466.8</v>
       </c>
       <c r="AB136">
-        <v>36696747.8547082</v>
+        <v>36696747.85</v>
       </c>
       <c r="AC136">
-        <v>62346506.7692075</v>
+        <v>62346506.77</v>
       </c>
       <c r="AD136">
-        <v>105924560.991421</v>
+        <v>105924561</v>
       </c>
       <c r="AE136">
-        <v>179962169.536767</v>
+        <v>179962169.5</v>
       </c>
       <c r="AF136">
-        <v>305749508.529972</v>
+        <v>305749508.5</v>
       </c>
       <c r="AG136">
-        <v>519457851.652651</v>
+        <v>519457851.7</v>
       </c>
       <c r="AH136">
-        <v>882540943.2085381</v>
+        <v>882540943.2</v>
       </c>
       <c r="AI136">
-        <v>1499406571.60426</v>
+        <v>1499406572</v>
       </c>
       <c r="AJ136">
-        <v>2547439962.15799</v>
+        <v>2547439962</v>
       </c>
       <c r="AK136">
-        <v>4328012484.20318</v>
+        <v>4328012484</v>
       </c>
       <c r="AL136">
-        <v>7353143682.15788</v>
+        <v>7353143682</v>
       </c>
       <c r="AM136">
-        <v>12492737072.2252</v>
+        <v>12492737072</v>
       </c>
       <c r="AN136">
-        <v>21224728674.1374</v>
+        <v>21224728674</v>
       </c>
       <c r="AO136">
-        <v>36060080724.2085</v>
+        <v>36060080724</v>
       </c>
       <c r="AP136">
-        <v>61264831310.7014</v>
+        <v>61264831311</v>
       </c>
       <c r="AQ136">
-        <v>104086831758.225</v>
+        <v>104087000000</v>
       </c>
       <c r="AR136">
-        <v>176839931061.273</v>
+        <v>176840000000</v>
       </c>
       <c r="AS136">
-        <v>300444933230.325</v>
+        <v>300445000000</v>
       </c>
     </row>
     <row r="137" spans="1:45">
@@ -17744,112 +17744,112 @@
         <v>1</v>
       </c>
       <c r="J137">
-        <v>453038.410304701</v>
+        <v>453038.4103</v>
       </c>
       <c r="K137">
-        <v>462878.158281706</v>
+        <v>462878.1583</v>
       </c>
       <c r="L137">
-        <v>440801.360384814</v>
+        <v>440801.3604</v>
       </c>
       <c r="M137">
-        <v>509570.856951019</v>
+        <v>509570.857</v>
       </c>
       <c r="N137">
-        <v>488469.381245162</v>
+        <v>488469.3812</v>
       </c>
       <c r="O137">
-        <v>507138.602813079</v>
+        <v>507138.6028</v>
       </c>
       <c r="P137">
         <v>507138.6</v>
       </c>
       <c r="Q137">
-        <v>530684.621432986</v>
+        <v>530684.6213999999</v>
       </c>
       <c r="R137">
-        <v>555323.86496605</v>
+        <v>555323.865</v>
       </c>
       <c r="S137">
-        <v>581107.087987802</v>
+        <v>581107.088</v>
       </c>
       <c r="T137">
-        <v>608087.404509993</v>
+        <v>608087.4044999999</v>
       </c>
       <c r="U137">
-        <v>636320.394583557</v>
+        <v>636320.3946</v>
       </c>
       <c r="V137">
-        <v>665864.21879475</v>
+        <v>665864.2188</v>
       </c>
       <c r="W137">
-        <v>696779.738077249</v>
+        <v>696779.7381</v>
       </c>
       <c r="X137">
-        <v>729130.639087026</v>
+        <v>729130.6391</v>
       </c>
       <c r="Y137">
-        <v>762983.565398275</v>
+        <v>762983.5654</v>
       </c>
       <c r="Z137">
-        <v>798408.25479065</v>
+        <v>798408.2548</v>
       </c>
       <c r="AA137">
-        <v>835477.682910642</v>
+        <v>835477.6829</v>
       </c>
       <c r="AB137">
-        <v>874268.213603031</v>
+        <v>874268.2136</v>
       </c>
       <c r="AC137">
-        <v>914859.756222101</v>
+        <v>914859.7561999999</v>
       </c>
       <c r="AD137">
-        <v>957335.930246681</v>
+        <v>957335.9301999999</v>
       </c>
       <c r="AE137">
-        <v>1001784.23753813</v>
+        <v>1001784.238</v>
       </c>
       <c r="AF137">
-        <v>1048296.24259612</v>
+        <v>1048296.243</v>
       </c>
       <c r="AG137">
-        <v>1096967.76118352</v>
+        <v>1096967.761</v>
       </c>
       <c r="AH137">
-        <v>1147899.057709</v>
+        <v>1147899.058</v>
       </c>
       <c r="AI137">
-        <v>1201195.05177398</v>
+        <v>1201195.052</v>
       </c>
       <c r="AJ137">
-        <v>1256965.53430926</v>
+        <v>1256965.534</v>
       </c>
       <c r="AK137">
-        <v>1315325.39374684</v>
+        <v>1315325.394</v>
       </c>
       <c r="AL137">
-        <v>1376394.85269261</v>
+        <v>1376394.853</v>
       </c>
       <c r="AM137">
-        <v>1440299.71558759</v>
+        <v>1440299.716</v>
       </c>
       <c r="AN137">
-        <v>1507171.62786788</v>
+        <v>1507171.628</v>
       </c>
       <c r="AO137">
-        <v>1577148.34715717</v>
+        <v>1577148.347</v>
       </c>
       <c r="AP137">
-        <v>1650374.02705052</v>
+        <v>1650374.027</v>
       </c>
       <c r="AQ137">
-        <v>1726999.51407394</v>
+        <v>1726999.514</v>
       </c>
       <c r="AR137">
-        <v>1807182.6584316</v>
+        <v>1807182.658</v>
       </c>
       <c r="AS137">
-        <v>1891088.63918075</v>
+        <v>1891088.639</v>
       </c>
     </row>
     <row r="138" spans="1:45">
@@ -17866,112 +17866,112 @@
         <v>1</v>
       </c>
       <c r="J138">
-        <v>448252.569367044</v>
+        <v>448252.5694</v>
       </c>
       <c r="K138">
-        <v>334143.810174896</v>
+        <v>334143.8102</v>
       </c>
       <c r="L138">
-        <v>492534.639296444</v>
+        <v>492534.6393</v>
       </c>
       <c r="M138">
-        <v>528982.834843835</v>
+        <v>528982.8348</v>
       </c>
       <c r="N138">
-        <v>344565.370861488</v>
+        <v>344565.3709</v>
       </c>
       <c r="O138">
-        <v>342390.056635753</v>
+        <v>342390.0566</v>
       </c>
       <c r="P138">
         <v>342390.1</v>
       </c>
       <c r="Q138">
-        <v>405285.609726545</v>
+        <v>405285.6097</v>
       </c>
       <c r="R138">
-        <v>479734.739559985</v>
+        <v>479734.7396</v>
       </c>
       <c r="S138">
-        <v>567859.837155261</v>
+        <v>567859.8372</v>
       </c>
       <c r="T138">
-        <v>672173.115813473</v>
+        <v>672173.1158</v>
       </c>
       <c r="U138">
-        <v>795648.2710342821</v>
+        <v>795648.2709999999</v>
       </c>
       <c r="V138">
-        <v>941805.252704445</v>
+        <v>941805.2527</v>
       </c>
       <c r="W138">
-        <v>1114810.60955321</v>
+        <v>1114810.61</v>
       </c>
       <c r="X138">
-        <v>1319596.26642941</v>
+        <v>1319596.266</v>
       </c>
       <c r="Y138">
-        <v>1562000.12042613</v>
+        <v>1562000.12</v>
       </c>
       <c r="Z138">
-        <v>1848932.46387627</v>
+        <v>1848932.464</v>
       </c>
       <c r="AA138">
-        <v>2188572.9784982</v>
+        <v>2188572.978</v>
       </c>
       <c r="AB138">
-        <v>2590603.91647329</v>
+        <v>2590603.916</v>
       </c>
       <c r="AC138">
-        <v>3066486.11583061</v>
+        <v>3066486.116</v>
       </c>
       <c r="AD138">
-        <v>3629785.71860691</v>
+        <v>3629785.719</v>
       </c>
       <c r="AE138">
-        <v>4296560.90565208</v>
+        <v>4296560.906</v>
       </c>
       <c r="AF138">
-        <v>5085819.67286566</v>
+        <v>5085819.673</v>
       </c>
       <c r="AG138">
-        <v>6020061.69885349</v>
+        <v>6020061.699</v>
       </c>
       <c r="AH138">
-        <v>7125919.75121727</v>
+        <v>7125919.751</v>
       </c>
       <c r="AI138">
-        <v>8434918.91627275</v>
+        <v>8434918.915999999</v>
       </c>
       <c r="AJ138">
-        <v>9984375.29582651</v>
+        <v>9984375.296</v>
       </c>
       <c r="AK138">
-        <v>11818459.7904779</v>
+        <v>11818459.79</v>
       </c>
       <c r="AL138">
-        <v>13989457.2950926</v>
+        <v>13989457.3</v>
       </c>
       <c r="AM138">
-        <v>16559257.2027785</v>
+        <v>16559257.2</v>
       </c>
       <c r="AN138">
-        <v>19601117.7076872</v>
+        <v>19601117.71</v>
       </c>
       <c r="AO138">
-        <v>23201754.2022441</v>
+        <v>23201754.2</v>
       </c>
       <c r="AP138">
-        <v>27463811.3034866</v>
+        <v>27463811.3</v>
       </c>
       <c r="AQ138">
-        <v>32508788.979437</v>
+        <v>32508788.98</v>
       </c>
       <c r="AR138">
-        <v>38480506.1916297</v>
+        <v>38480506.19</v>
       </c>
       <c r="AS138">
-        <v>45549200.7930741</v>
+        <v>45549200.79</v>
       </c>
     </row>
     <row r="139" spans="1:45">
@@ -17988,112 +17988,112 @@
         <v>1</v>
       </c>
       <c r="J139">
-        <v>188071.411057018</v>
+        <v>188071.4111</v>
       </c>
       <c r="K139">
-        <v>228983.775293876</v>
+        <v>228983.7753</v>
       </c>
       <c r="L139">
-        <v>214598.416358305</v>
+        <v>214598.4164</v>
       </c>
       <c r="M139">
-        <v>242605.460719792</v>
+        <v>242605.4607</v>
       </c>
       <c r="N139">
-        <v>191638.303193199</v>
+        <v>191638.3032</v>
       </c>
       <c r="O139">
-        <v>146097.746580099</v>
+        <v>146097.7466</v>
       </c>
       <c r="P139">
         <v>146097.7</v>
       </c>
       <c r="Q139">
-        <v>150324.326914678</v>
+        <v>150324.3269</v>
       </c>
       <c r="R139">
-        <v>154673.230737725</v>
+        <v>154673.2307</v>
       </c>
       <c r="S139">
-        <v>159147.94895722</v>
+        <v>159147.949</v>
       </c>
       <c r="T139">
-        <v>163752.121401265</v>
+        <v>163752.1214</v>
       </c>
       <c r="U139">
-        <v>168489.493198701</v>
+        <v>168489.4932</v>
       </c>
       <c r="V139">
-        <v>173363.917825468</v>
+        <v>173363.9178</v>
       </c>
       <c r="W139">
-        <v>178379.360239108</v>
+        <v>178379.3602</v>
       </c>
       <c r="X139">
-        <v>183539.900103935</v>
+        <v>183539.9001</v>
       </c>
       <c r="Y139">
-        <v>188849.735109528</v>
+        <v>188849.7351</v>
       </c>
       <c r="Z139">
-        <v>194313.18438521</v>
+        <v>194313.1844</v>
       </c>
       <c r="AA139">
-        <v>199934.69201332</v>
+        <v>199934.692</v>
       </c>
       <c r="AB139">
-        <v>205718.830644122</v>
+        <v>205718.8306</v>
       </c>
       <c r="AC139">
-        <v>211670.305215293</v>
+        <v>211670.3052</v>
       </c>
       <c r="AD139">
-        <v>217793.956779014</v>
+        <v>217793.9568</v>
       </c>
       <c r="AE139">
-        <v>224094.766439785</v>
+        <v>224094.7664</v>
       </c>
       <c r="AF139">
-        <v>230577.859406155</v>
+        <v>230577.8594</v>
       </c>
       <c r="AG139">
-        <v>237248.509159675</v>
+        <v>237248.5092</v>
       </c>
       <c r="AH139">
-        <v>244112.141744456</v>
+        <v>244112.1417</v>
       </c>
       <c r="AI139">
-        <v>251174.340180823</v>
+        <v>251174.3402</v>
       </c>
       <c r="AJ139">
-        <v>258440.849006662</v>
+        <v>258440.849</v>
       </c>
       <c r="AK139">
-        <v>265917.578950143</v>
+        <v>265917.579</v>
       </c>
       <c r="AL139">
-        <v>273610.611737632</v>
+        <v>273610.6117</v>
       </c>
       <c r="AM139">
-        <v>281526.205040687</v>
+        <v>281526.205</v>
       </c>
       <c r="AN139">
-        <v>289670.797566183</v>
+        <v>289670.7976</v>
       </c>
       <c r="AO139">
-        <v>298051.014293684</v>
+        <v>298051.0143</v>
       </c>
       <c r="AP139">
-        <v>306673.671864343</v>
+        <v>306673.6719</v>
       </c>
       <c r="AQ139">
-        <v>315545.784125692</v>
+        <v>315545.7841</v>
       </c>
       <c r="AR139">
-        <v>324674.567836858</v>
+        <v>324674.5678</v>
       </c>
       <c r="AS139">
-        <v>334067.448538818</v>
+        <v>334067.4485</v>
       </c>
     </row>
     <row r="140" spans="1:45">
@@ -18110,112 +18110,112 @@
         <v>1</v>
       </c>
       <c r="J140">
-        <v>82221.1038186349</v>
+        <v>82221.10382</v>
       </c>
       <c r="K140">
-        <v>93925.4301625879</v>
+        <v>93925.43016</v>
       </c>
       <c r="L140">
-        <v>84163.35982096331</v>
+        <v>84163.35982</v>
       </c>
       <c r="M140">
-        <v>99505.7020567062</v>
+        <v>99505.70206</v>
       </c>
       <c r="N140">
-        <v>87730.22727998911</v>
+        <v>87730.22728000001</v>
       </c>
       <c r="O140">
-        <v>87324.7114495369</v>
+        <v>87324.71145</v>
       </c>
       <c r="P140">
         <v>87324.71000000001</v>
       </c>
       <c r="Q140">
-        <v>93226.63770160799</v>
+        <v>93226.63770000001</v>
       </c>
       <c r="R140">
-        <v>99527.4530788236</v>
+        <v>99527.45308000001</v>
       </c>
       <c r="S140">
-        <v>106254.115353412</v>
+        <v>106254.1154</v>
       </c>
       <c r="T140">
-        <v>113435.405813056</v>
+        <v>113435.4058</v>
       </c>
       <c r="U140">
-        <v>121102.050957497</v>
+        <v>121102.051</v>
       </c>
       <c r="V140">
-        <v>129286.853967637</v>
+        <v>129286.854</v>
       </c>
       <c r="W140">
-        <v>138024.835060106</v>
+        <v>138024.8351</v>
       </c>
       <c r="X140">
-        <v>147353.381327836</v>
+        <v>147353.3813</v>
       </c>
       <c r="Y140">
-        <v>157312.406707758</v>
+        <v>157312.4067</v>
       </c>
       <c r="Z140">
-        <v>167944.522760078</v>
+        <v>167944.5228</v>
       </c>
       <c r="AA140">
-        <v>179295.220989835</v>
+        <v>179295.221</v>
       </c>
       <c r="AB140">
-        <v>191413.067490852</v>
+        <v>191413.0675</v>
       </c>
       <c r="AC140">
-        <v>204349.910744887</v>
+        <v>204349.9107</v>
       </c>
       <c r="AD140">
-        <v>218161.103465096</v>
+        <v>218161.1035</v>
       </c>
       <c r="AE140">
-        <v>232905.739433014</v>
+        <v>232905.7394</v>
       </c>
       <c r="AF140">
-        <v>248646.906342394</v>
+        <v>248646.9063</v>
       </c>
       <c r="AG140">
-        <v>265451.955731751</v>
+        <v>265451.9557</v>
       </c>
       <c r="AH140">
-        <v>283392.791160569</v>
+        <v>283392.7912</v>
       </c>
       <c r="AI140">
-        <v>302546.175862179</v>
+        <v>302546.1759</v>
       </c>
       <c r="AJ140">
-        <v>322994.061189672</v>
+        <v>322994.0612</v>
       </c>
       <c r="AK140">
-        <v>344823.937260147</v>
+        <v>344823.9373</v>
       </c>
       <c r="AL140">
-        <v>368129.207297611</v>
+        <v>368129.2073</v>
       </c>
       <c r="AM140">
-        <v>393009.587276207</v>
+        <v>393009.5873</v>
       </c>
       <c r="AN140">
-        <v>419571.532573741</v>
+        <v>419571.5326</v>
       </c>
       <c r="AO140">
-        <v>447928.693460998</v>
+        <v>447928.6935</v>
       </c>
       <c r="AP140">
-        <v>478202.401375774</v>
+        <v>478202.4014</v>
       </c>
       <c r="AQ140">
-        <v>510522.188062213</v>
+        <v>510522.1881</v>
       </c>
       <c r="AR140">
-        <v>545026.339796698</v>
+        <v>545026.3398</v>
       </c>
       <c r="AS140">
-        <v>581862.489071653</v>
+        <v>581862.4891</v>
       </c>
     </row>
     <row r="141" spans="1:45">
@@ -18964,112 +18964,112 @@
         <v>1</v>
       </c>
       <c r="J147">
-        <v>6740.87660232042</v>
+        <v>6740.876602</v>
       </c>
       <c r="K147">
-        <v>6199.72365162867</v>
+        <v>6199.723652</v>
       </c>
       <c r="L147">
-        <v>5118.86514792321</v>
+        <v>5118.865148</v>
       </c>
       <c r="M147">
-        <v>4888.41175677502</v>
+        <v>4888.411757</v>
       </c>
       <c r="N147">
-        <v>3788.30761166633</v>
+        <v>3788.307612</v>
       </c>
       <c r="O147">
-        <v>4678.6716651119</v>
+        <v>4678.671665</v>
       </c>
       <c r="P147">
         <v>4678.672</v>
       </c>
       <c r="Q147">
-        <v>5147.07388471843</v>
+        <v>5147.073885</v>
       </c>
       <c r="R147">
-        <v>5662.36948748502</v>
+        <v>5662.369487</v>
       </c>
       <c r="S147">
-        <v>6229.25353917963</v>
+        <v>6229.253539</v>
       </c>
       <c r="T147">
-        <v>6852.89078029008</v>
+        <v>6852.89078</v>
       </c>
       <c r="U147">
-        <v>7538.96301558622</v>
+        <v>7538.963016</v>
       </c>
       <c r="V147">
-        <v>8293.72087963891</v>
+        <v>8293.720880000001</v>
       </c>
       <c r="W147">
-        <v>9124.04078480677</v>
+        <v>9124.040784999999</v>
       </c>
       <c r="X147">
-        <v>10037.4875705296</v>
+        <v>10037.48757</v>
       </c>
       <c r="Y147">
-        <v>11042.3834247108</v>
+        <v>11042.38342</v>
       </c>
       <c r="Z147">
-        <v>12147.8837051148</v>
+        <v>12147.88371</v>
       </c>
       <c r="AA147">
-        <v>13364.0603515683</v>
+        <v>13364.06035</v>
       </c>
       <c r="AB147">
-        <v>14701.9936489154</v>
+        <v>14701.99365</v>
       </c>
       <c r="AC147">
-        <v>16173.8731767538</v>
+        <v>16173.87318</v>
       </c>
       <c r="AD147">
-        <v>17793.1088656818</v>
+        <v>17793.10887</v>
       </c>
       <c r="AE147">
-        <v>19574.4531718622</v>
+        <v>19574.45317</v>
       </c>
       <c r="AF147">
-        <v>21534.1354830037</v>
+        <v>21534.13548</v>
       </c>
       <c r="AG147">
-        <v>23690.0099803014</v>
+        <v>23690.00998</v>
       </c>
       <c r="AH147">
-        <v>26061.7183034691</v>
+        <v>26061.7183</v>
       </c>
       <c r="AI147">
-        <v>28670.868500864</v>
+        <v>28670.8685</v>
       </c>
       <c r="AJ147">
-        <v>31541.2318950748</v>
+        <v>31541.2319</v>
       </c>
       <c r="AK147">
-        <v>34698.9596575669</v>
+        <v>34698.95966</v>
       </c>
       <c r="AL147">
-        <v>38172.8210655419</v>
+        <v>38172.82107</v>
       </c>
       <c r="AM147">
-        <v>41994.4656117121</v>
+        <v>41994.46561</v>
       </c>
       <c r="AN147">
-        <v>46198.7113550062</v>
+        <v>46198.71136</v>
       </c>
       <c r="AO147">
-        <v>50823.8621392988</v>
+        <v>50823.86214</v>
       </c>
       <c r="AP147">
-        <v>55912.056570265</v>
+        <v>55912.05657</v>
       </c>
       <c r="AQ147">
-        <v>61509.651929802</v>
+        <v>61509.65193</v>
       </c>
       <c r="AR147">
-        <v>67667.6465257673</v>
+        <v>67667.64653</v>
       </c>
       <c r="AS147">
-        <v>74442.144324957</v>
+        <v>74442.14432000001</v>
       </c>
     </row>
     <row r="148" spans="1:45">
@@ -19086,112 +19086,112 @@
         <v>1</v>
       </c>
       <c r="J148">
-        <v>17640.2972007086</v>
+        <v>17640.2972</v>
       </c>
       <c r="K148">
-        <v>26026.0855502508</v>
+        <v>26026.08555</v>
       </c>
       <c r="L148">
-        <v>23327.4871358555</v>
+        <v>23327.48714</v>
       </c>
       <c r="M148">
-        <v>23820.929125262</v>
+        <v>23820.92913</v>
       </c>
       <c r="N148">
-        <v>21821.115119563</v>
+        <v>21821.11512</v>
       </c>
       <c r="O148">
-        <v>20988.9489779228</v>
+        <v>20988.94898</v>
       </c>
       <c r="P148">
         <v>20988.95</v>
       </c>
       <c r="Q148">
-        <v>21836.5873961605</v>
+        <v>21836.5874</v>
       </c>
       <c r="R148">
-        <v>22718.4565740619</v>
+        <v>22718.45657</v>
       </c>
       <c r="S148">
-        <v>23635.9399820086</v>
+        <v>23635.93998</v>
       </c>
       <c r="T148">
-        <v>24590.4758983911</v>
+        <v>24590.4759</v>
       </c>
       <c r="U148">
-        <v>25583.56068638</v>
+        <v>25583.56069</v>
       </c>
       <c r="V148">
-        <v>26616.7511396765</v>
+        <v>26616.75114</v>
       </c>
       <c r="W148">
-        <v>27691.6669229952</v>
+        <v>27691.66692</v>
       </c>
       <c r="X148">
-        <v>28809.9931111062</v>
+        <v>28809.99311</v>
       </c>
       <c r="Y148">
-        <v>29973.4828304157</v>
+        <v>29973.48283</v>
       </c>
       <c r="Z148">
-        <v>31183.9600072271</v>
+        <v>31183.96001</v>
       </c>
       <c r="AA148">
-        <v>32443.3222269903</v>
+        <v>32443.32223</v>
       </c>
       <c r="AB148">
-        <v>33753.5437090217</v>
+        <v>33753.54371</v>
       </c>
       <c r="AC148">
-        <v>35116.6784013577</v>
+        <v>35116.6784</v>
       </c>
       <c r="AD148">
-        <v>36534.8632005941</v>
+        <v>36534.8632</v>
       </c>
       <c r="AE148">
-        <v>38010.3213017584</v>
+        <v>38010.3213</v>
       </c>
       <c r="AF148">
-        <v>39545.3656834662</v>
+        <v>39545.36568</v>
       </c>
       <c r="AG148">
-        <v>41142.402733826</v>
+        <v>41142.40273</v>
       </c>
       <c r="AH148">
-        <v>42803.936022775</v>
+        <v>42803.93602</v>
       </c>
       <c r="AI148">
-        <v>44532.5702267617</v>
+        <v>44532.57023</v>
       </c>
       <c r="AJ148">
-        <v>46331.0152119252</v>
+        <v>46331.01521</v>
       </c>
       <c r="AK148">
-        <v>48202.0902821745</v>
+        <v>48202.09028</v>
       </c>
       <c r="AL148">
-        <v>50148.7285988257</v>
+        <v>50148.7286</v>
       </c>
       <c r="AM148">
-        <v>52173.9817787261</v>
+        <v>52173.98178</v>
       </c>
       <c r="AN148">
-        <v>54281.0246780729</v>
+        <v>54281.02468</v>
       </c>
       <c r="AO148">
-        <v>56473.160369427</v>
+        <v>56473.16037</v>
       </c>
       <c r="AP148">
-        <v>58753.8253197221</v>
+        <v>58753.82532</v>
       </c>
       <c r="AQ148">
-        <v>61126.5947773881</v>
+        <v>61126.59478</v>
       </c>
       <c r="AR148">
-        <v>63595.1883770328</v>
+        <v>63595.18838</v>
       </c>
       <c r="AS148">
-        <v>66163.4759704687</v>
+        <v>66163.47597</v>
       </c>
     </row>
     <row r="149" spans="1:45">
